--- a/artfynd/A 1026-2026 artfynd.xlsx
+++ b/artfynd/A 1026-2026 artfynd.xlsx
@@ -1967,10 +1967,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131196451</v>
+        <v>131196449</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1978,37 +1978,50 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>500318</v>
+        <v>500203</v>
       </c>
       <c r="R12" t="n">
-        <v>7016201</v>
+        <v>7016330</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2043,13 +2056,17 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Synobservation av 2 st födosökande järpar.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2073,10 +2090,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131196449</v>
+        <v>131196451</v>
       </c>
       <c r="B13" t="n">
-        <v>57064</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2084,50 +2101,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102612</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>500203</v>
+        <v>500318</v>
       </c>
       <c r="R13" t="n">
-        <v>7016330</v>
+        <v>7016201</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2162,17 +2166,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Synobservation av 2 st födosökande järpar.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 1026-2026 artfynd.xlsx
+++ b/artfynd/A 1026-2026 artfynd.xlsx
@@ -1723,7 +1723,7 @@
         <v>131196450</v>
       </c>
       <c r="B10" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>131196448</v>
       </c>
       <c r="B11" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131196449</v>
+        <v>131196451</v>
       </c>
       <c r="B12" t="n">
-        <v>57064</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1978,50 +1978,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>102612</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>500203</v>
+        <v>500318</v>
       </c>
       <c r="R12" t="n">
-        <v>7016330</v>
+        <v>7016201</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2056,17 +2043,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Synobservation av 2 st födosökande järpar.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2090,10 +2073,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131196451</v>
+        <v>131196449</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2101,37 +2084,50 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>500318</v>
+        <v>500203</v>
       </c>
       <c r="R13" t="n">
-        <v>7016201</v>
+        <v>7016330</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2166,13 +2162,17 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Synobservation av 2 st födosökande järpar.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131196447</v>
+        <v>131196452</v>
       </c>
       <c r="B14" t="n">
-        <v>58043</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2207,50 +2207,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>500269</v>
+        <v>500345</v>
       </c>
       <c r="R14" t="n">
-        <v>7016195</v>
+        <v>7016371</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2285,17 +2272,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Synobservation av 1 st talltita.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2319,10 +2302,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131196452</v>
+        <v>131196447</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>58043</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2330,37 +2313,50 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>500345</v>
+        <v>500269</v>
       </c>
       <c r="R15" t="n">
-        <v>7016371</v>
+        <v>7016195</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2395,13 +2391,17 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Synobservation av 1 st talltita.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 1026-2026 artfynd.xlsx
+++ b/artfynd/A 1026-2026 artfynd.xlsx
@@ -1967,10 +1967,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131196451</v>
+        <v>131196449</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>57064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1978,37 +1978,50 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>500318</v>
+        <v>500203</v>
       </c>
       <c r="R12" t="n">
-        <v>7016201</v>
+        <v>7016330</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2043,13 +2056,17 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Synobservation av 2 st födosökande järpar.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2073,10 +2090,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131196449</v>
+        <v>131196451</v>
       </c>
       <c r="B13" t="n">
-        <v>57064</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2084,50 +2101,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102612</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>500203</v>
+        <v>500318</v>
       </c>
       <c r="R13" t="n">
-        <v>7016330</v>
+        <v>7016201</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2162,17 +2166,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Synobservation av 2 st födosökande järpar.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131196452</v>
+        <v>131196447</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>58043</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2207,37 +2207,50 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>500345</v>
+        <v>500269</v>
       </c>
       <c r="R14" t="n">
-        <v>7016371</v>
+        <v>7016195</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2272,13 +2285,17 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Synobservation av 1 st talltita.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2302,10 +2319,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131196447</v>
+        <v>131196452</v>
       </c>
       <c r="B15" t="n">
-        <v>58043</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2313,50 +2330,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>500269</v>
+        <v>500345</v>
       </c>
       <c r="R15" t="n">
-        <v>7016195</v>
+        <v>7016371</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2391,17 +2395,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Synobservation av 1 st talltita.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 1026-2026 artfynd.xlsx
+++ b/artfynd/A 1026-2026 artfynd.xlsx
@@ -1967,10 +1967,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131196449</v>
+        <v>131196451</v>
       </c>
       <c r="B12" t="n">
-        <v>57064</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1978,50 +1978,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>102612</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>500203</v>
+        <v>500318</v>
       </c>
       <c r="R12" t="n">
-        <v>7016330</v>
+        <v>7016201</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2056,17 +2043,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Synobservation av 2 st födosökande järpar.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2090,10 +2073,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131196451</v>
+        <v>131196449</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>57064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2101,37 +2084,50 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>500318</v>
+        <v>500203</v>
       </c>
       <c r="R13" t="n">
-        <v>7016201</v>
+        <v>7016330</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2166,13 +2162,17 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Synobservation av 2 st födosökande järpar.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131196447</v>
+        <v>131196452</v>
       </c>
       <c r="B14" t="n">
-        <v>58043</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2207,50 +2207,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>500269</v>
+        <v>500345</v>
       </c>
       <c r="R14" t="n">
-        <v>7016195</v>
+        <v>7016371</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2285,17 +2272,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Synobservation av 1 st talltita.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2319,10 +2302,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131196452</v>
+        <v>131196447</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>58043</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2330,37 +2313,50 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>500345</v>
+        <v>500269</v>
       </c>
       <c r="R15" t="n">
-        <v>7016371</v>
+        <v>7016195</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2395,13 +2391,17 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Synobservation av 1 st talltita.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 1026-2026 artfynd.xlsx
+++ b/artfynd/A 1026-2026 artfynd.xlsx
@@ -1070,7 +1070,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131196443</v>
+        <v>131196446</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>500146</v>
+        <v>500268</v>
       </c>
       <c r="R5" t="n">
-        <v>7016293</v>
+        <v>7016174</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på tall.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131196446</v>
+        <v>131196443</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>500268</v>
+        <v>500146</v>
       </c>
       <c r="R6" t="n">
-        <v>7016174</v>
+        <v>7016293</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på tall.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1302,17 +1302,17 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131196451</v>
+        <v>131196449</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>57064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1978,37 +1978,50 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>500318</v>
+        <v>500203</v>
       </c>
       <c r="R12" t="n">
-        <v>7016201</v>
+        <v>7016330</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2043,13 +2056,17 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Synobservation av 2 st födosökande järpar.</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2073,10 +2090,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131196449</v>
+        <v>131196451</v>
       </c>
       <c r="B13" t="n">
-        <v>57064</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2084,50 +2101,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>102612</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>500203</v>
+        <v>500318</v>
       </c>
       <c r="R13" t="n">
-        <v>7016330</v>
+        <v>7016201</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2162,17 +2166,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Synobservation av 2 st födosökande järpar.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131196452</v>
+        <v>131196447</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>58043</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2207,37 +2207,50 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>500345</v>
+        <v>500269</v>
       </c>
       <c r="R14" t="n">
-        <v>7016371</v>
+        <v>7016195</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2272,13 +2285,17 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Synobservation av 1 st talltita.</t>
+        </is>
+      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2302,10 +2319,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131196447</v>
+        <v>131196452</v>
       </c>
       <c r="B15" t="n">
-        <v>58043</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2313,50 +2330,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>500269</v>
+        <v>500345</v>
       </c>
       <c r="R15" t="n">
-        <v>7016195</v>
+        <v>7016371</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2391,17 +2395,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Synobservation av 1 st talltita.</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 1026-2026 artfynd.xlsx
+++ b/artfynd/A 1026-2026 artfynd.xlsx
@@ -1070,7 +1070,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131196446</v>
+        <v>131196443</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>500268</v>
+        <v>500146</v>
       </c>
       <c r="R5" t="n">
-        <v>7016174</v>
+        <v>7016293</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på tall.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1172,17 +1172,17 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131196443</v>
+        <v>131196446</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>500146</v>
+        <v>500268</v>
       </c>
       <c r="R6" t="n">
-        <v>7016293</v>
+        <v>7016174</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på tall.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1302,17 +1302,17 @@
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1723,7 +1723,7 @@
         <v>131196450</v>
       </c>
       <c r="B10" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>131196448</v>
       </c>
       <c r="B11" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131196449</v>
+        <v>131196451</v>
       </c>
       <c r="B12" t="n">
-        <v>57064</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1978,50 +1978,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>102612</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>500203</v>
+        <v>500318</v>
       </c>
       <c r="R12" t="n">
-        <v>7016330</v>
+        <v>7016201</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2056,17 +2043,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Synobservation av 2 st födosökande järpar.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2090,10 +2073,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131196451</v>
+        <v>131196449</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>57064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2101,37 +2084,50 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>500318</v>
+        <v>500203</v>
       </c>
       <c r="R13" t="n">
-        <v>7016201</v>
+        <v>7016330</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2166,13 +2162,17 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Synobservation av 2 st födosökande järpar.</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2196,10 +2196,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131196447</v>
+        <v>131196452</v>
       </c>
       <c r="B14" t="n">
-        <v>58043</v>
+        <v>79245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2207,50 +2207,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>förbiflygande</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>500269</v>
+        <v>500345</v>
       </c>
       <c r="R14" t="n">
-        <v>7016195</v>
+        <v>7016371</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2285,17 +2272,13 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Synobservation av 1 st talltita.</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2319,10 +2302,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131196452</v>
+        <v>131196447</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>58043</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2330,37 +2313,50 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>förbiflygande</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Fäviken Sydväst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>500345</v>
+        <v>500269</v>
       </c>
       <c r="R15" t="n">
-        <v>7016371</v>
+        <v>7016195</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2395,13 +2391,17 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Synobservation av 1 st talltita.</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 1026-2026 artfynd.xlsx
+++ b/artfynd/A 1026-2026 artfynd.xlsx
@@ -1723,7 +1723,7 @@
         <v>131196450</v>
       </c>
       <c r="B10" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
